--- a/data/trans_orig/iP30KDA5_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30KDA5_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F559AE88-B316-46B5-8B4A-245A32FAA5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{284649F9-E72C-47C6-B553-323AC79780B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6DD905AB-A45B-4A37-A70B-89BE30A8E05F}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{8B0DAAB4-3FFB-4B61-BD47-896CA78803B3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Menores según si consumen pescados con regularidad (por lo menos 2-3 veces a la semana) en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,352 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>54,39%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>81,46%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>63,95%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>61,97%</t>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>27,08%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>87,27%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>79,17%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -825,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B36871B4-285D-415D-8EDF-A6D4BE2844CE}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F78A085-68D9-4141-AA36-969576588CEC}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -943,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="D4" s="7">
-        <v>5897</v>
+        <v>86034</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -958,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="I4" s="7">
-        <v>9005</v>
+        <v>116611</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -973,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>26</v>
+        <v>283</v>
       </c>
       <c r="N4" s="7">
-        <v>14901</v>
+        <v>202645</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -994,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="D5" s="7">
-        <v>5500</v>
+        <v>28217</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1009,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="I5" s="7">
-        <v>6994</v>
+        <v>20204</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1024,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>17</v>
+        <v>69</v>
       </c>
       <c r="N5" s="7">
-        <v>12494</v>
+        <v>48421</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1045,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="D6" s="7">
-        <v>11397</v>
+        <v>114251</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1060,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="I6" s="7">
-        <v>15999</v>
+        <v>136815</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1075,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>43</v>
+        <v>352</v>
       </c>
       <c r="N6" s="7">
-        <v>27395</v>
+        <v>251066</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1098,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>129</v>
+        <v>227</v>
       </c>
       <c r="D7" s="7">
-        <v>99870</v>
+        <v>158740</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1113,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>128</v>
+        <v>284</v>
       </c>
       <c r="I7" s="7">
-        <v>79248</v>
+        <v>214390</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1128,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>257</v>
+        <v>511</v>
       </c>
       <c r="N7" s="7">
-        <v>179119</v>
+        <v>373130</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1149,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="D8" s="7">
-        <v>12578</v>
+        <v>27374</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1164,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I8" s="7">
-        <v>22387</v>
+        <v>33130</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1179,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="N8" s="7">
-        <v>34964</v>
+        <v>60504</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1200,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>147</v>
+        <v>269</v>
       </c>
       <c r="D9" s="7">
-        <v>112448</v>
+        <v>186114</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1215,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>324</v>
       </c>
       <c r="I9" s="7">
-        <v>101635</v>
+        <v>247520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1230,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>309</v>
+        <v>593</v>
       </c>
       <c r="N9" s="7">
-        <v>214083</v>
+        <v>433634</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1253,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>284</v>
+        <v>163</v>
       </c>
       <c r="D10" s="7">
-        <v>211961</v>
+        <v>141817</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1268,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>227</v>
+        <v>154</v>
       </c>
       <c r="I10" s="7">
-        <v>160531</v>
+        <v>132228</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1283,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>511</v>
+        <v>317</v>
       </c>
       <c r="N10" s="7">
-        <v>372493</v>
+        <v>274046</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1304,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D11" s="7">
-        <v>30952</v>
+        <v>46432</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1319,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="I11" s="7">
-        <v>27386</v>
+        <v>50861</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1334,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>82</v>
+        <v>126</v>
       </c>
       <c r="N11" s="7">
-        <v>58337</v>
+        <v>97293</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1355,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>324</v>
+        <v>223</v>
       </c>
       <c r="D12" s="7">
-        <v>242913</v>
+        <v>188249</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1370,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>187917</v>
+        <v>183089</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1385,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>593</v>
+        <v>443</v>
       </c>
       <c r="N12" s="7">
-        <v>430830</v>
+        <v>371339</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1408,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="D13" s="7">
-        <v>124778</v>
+        <v>139686</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1423,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="I13" s="7">
-        <v>122866</v>
+        <v>145531</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1438,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>317</v>
+        <v>395</v>
       </c>
       <c r="N13" s="7">
-        <v>247645</v>
+        <v>285217</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1459,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="D14" s="7">
-        <v>46341</v>
+        <v>24833</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1474,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="I14" s="7">
-        <v>43702</v>
+        <v>31778</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1489,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="N14" s="7">
-        <v>90042</v>
+        <v>56611</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1510,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D15" s="7">
-        <v>171119</v>
+        <v>164519</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1525,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="I15" s="7">
-        <v>166568</v>
+        <v>177309</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1540,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="N15" s="7">
-        <v>337687</v>
+        <v>341828</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1557,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>195</v>
+        <v>734</v>
       </c>
       <c r="D16" s="7">
-        <v>141660</v>
+        <v>526278</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>772</v>
+      </c>
+      <c r="I16" s="7">
+        <v>608760</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>200</v>
-      </c>
-      <c r="I16" s="7">
-        <v>143321</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1506</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1135038</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>395</v>
-      </c>
-      <c r="N16" s="7">
-        <v>284982</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="D17" s="7">
-        <v>29796</v>
+        <v>126856</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>168</v>
+      </c>
+      <c r="I17" s="7">
+        <v>135973</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>35</v>
-      </c>
-      <c r="I17" s="7">
-        <v>25169</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>349</v>
+      </c>
+      <c r="N17" s="7">
+        <v>262829</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>72</v>
-      </c>
-      <c r="N17" s="7">
-        <v>54965</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>915</v>
       </c>
       <c r="D18" s="7">
-        <v>171456</v>
+        <v>653134</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1680,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>235</v>
+        <v>940</v>
       </c>
       <c r="I18" s="7">
-        <v>168490</v>
+        <v>744733</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1695,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>467</v>
+        <v>1855</v>
       </c>
       <c r="N18" s="7">
-        <v>339947</v>
+        <v>1397867</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1711,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>772</v>
-      </c>
-      <c r="D19" s="7">
-        <v>584168</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>734</v>
-      </c>
-      <c r="I19" s="7">
-        <v>514972</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1506</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1099140</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>168</v>
-      </c>
-      <c r="D20" s="7">
-        <v>125165</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="7">
-        <v>181</v>
-      </c>
-      <c r="I20" s="7">
-        <v>125637</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M20" s="7">
-        <v>349</v>
-      </c>
-      <c r="N20" s="7">
-        <v>250802</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>940</v>
-      </c>
-      <c r="D21" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>915</v>
-      </c>
-      <c r="I21" s="7">
-        <v>640609</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1855</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1349942</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>125</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
